--- a/resources/AccountCreation.xlsx
+++ b/resources/AccountCreation.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="78">
   <si>
     <t>//button[@aria-label="Account Management"]</t>
   </si>
@@ -229,19 +229,47 @@
   </si>
   <si>
     <t>ordermanager.user1@cvhcare.com</t>
+  </si>
+  <si>
+    <t>hr</t>
+  </si>
+  <si>
+    <t>cq</t>
+  </si>
+  <si>
+    <t>cqmgr</t>
+  </si>
+  <si>
+    <t>hr.user1@cvhcare.com</t>
+  </si>
+  <si>
+    <t>hrmanager.user1@cvhcare.com</t>
+  </si>
+  <si>
+    <t>cq.user1@cvhcare.com</t>
+  </si>
+  <si>
+    <t>cqmanager.user1@cvhcare.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -261,16 +289,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -563,10 +597,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I177"/>
+  <dimension ref="A1:I169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="B126" sqref="B126"/>
+    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="D141" sqref="D141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.28515625" defaultRowHeight="18.75" customHeight="1"/>
@@ -3119,154 +3153,690 @@
       <c r="I122"/>
     </row>
     <row r="123" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A123" t="s">
+        <v>3</v>
+      </c>
+      <c r="B123" t="s">
+        <v>2</v>
+      </c>
+      <c r="C123" t="s">
+        <v>4</v>
+      </c>
+      <c r="D123"/>
+      <c r="E123">
+        <v>1</v>
+      </c>
+      <c r="F123">
+        <v>1</v>
+      </c>
+      <c r="G123">
+        <v>1</v>
+      </c>
       <c r="H123"/>
       <c r="I123"/>
     </row>
     <row r="124" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A124" t="s">
+        <v>10</v>
+      </c>
+      <c r="B124" t="s">
+        <v>6</v>
+      </c>
+      <c r="C124" t="s">
+        <v>5</v>
+      </c>
+      <c r="D124" t="s">
+        <v>71</v>
+      </c>
+      <c r="E124"/>
+      <c r="F124"/>
+      <c r="G124"/>
       <c r="H124"/>
       <c r="I124"/>
     </row>
     <row r="125" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A125" t="s">
+        <v>11</v>
+      </c>
+      <c r="B125" t="s">
+        <v>7</v>
+      </c>
+      <c r="C125" t="s">
+        <v>5</v>
+      </c>
+      <c r="D125" t="s">
+        <v>45</v>
+      </c>
+      <c r="E125"/>
+      <c r="F125"/>
+      <c r="G125"/>
       <c r="H125"/>
       <c r="I125"/>
     </row>
     <row r="126" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A126" t="s">
+        <v>12</v>
+      </c>
+      <c r="B126" t="s">
+        <v>8</v>
+      </c>
+      <c r="C126" t="s">
+        <v>5</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E126"/>
+      <c r="F126"/>
+      <c r="G126"/>
       <c r="H126"/>
       <c r="I126"/>
     </row>
     <row r="127" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A127" t="s">
+        <v>13</v>
+      </c>
+      <c r="B127" t="s">
+        <v>9</v>
+      </c>
+      <c r="C127" t="s">
+        <v>4</v>
+      </c>
+      <c r="D127"/>
+      <c r="E127">
+        <v>1</v>
+      </c>
+      <c r="F127">
+        <v>1</v>
+      </c>
+      <c r="G127">
+        <v>1</v>
+      </c>
       <c r="H127"/>
       <c r="I127"/>
     </row>
     <row r="128" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A128" t="s">
+        <v>23</v>
+      </c>
+      <c r="B128" t="s">
+        <v>43</v>
+      </c>
+      <c r="C128" t="s">
+        <v>4</v>
+      </c>
+      <c r="D128"/>
+      <c r="E128">
+        <v>1</v>
+      </c>
+      <c r="F128">
+        <v>1</v>
+      </c>
+      <c r="G128">
+        <v>1</v>
+      </c>
       <c r="H128"/>
       <c r="I128"/>
     </row>
-    <row r="129" spans="8:9" ht="18.75" customHeight="1">
+    <row r="129" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A129" t="s">
+        <v>24</v>
+      </c>
+      <c r="B129" t="s">
+        <v>25</v>
+      </c>
+      <c r="C129" t="s">
+        <v>4</v>
+      </c>
+      <c r="D129"/>
+      <c r="E129">
+        <v>1</v>
+      </c>
+      <c r="F129">
+        <v>1</v>
+      </c>
+      <c r="G129">
+        <v>1</v>
+      </c>
       <c r="H129"/>
       <c r="I129"/>
     </row>
-    <row r="130" spans="8:9" ht="18.75" customHeight="1">
+    <row r="130" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A130" t="s">
+        <v>26</v>
+      </c>
+      <c r="B130" t="s">
+        <v>27</v>
+      </c>
+      <c r="C130" t="s">
+        <v>28</v>
+      </c>
+      <c r="D130"/>
+      <c r="E130"/>
+      <c r="F130"/>
+      <c r="G130"/>
       <c r="H130"/>
       <c r="I130"/>
     </row>
-    <row r="131" spans="8:9" ht="18.75" customHeight="1">
+    <row r="131" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A131" t="s">
+        <v>3</v>
+      </c>
+      <c r="B131" t="s">
+        <v>2</v>
+      </c>
+      <c r="C131" t="s">
+        <v>4</v>
+      </c>
+      <c r="D131"/>
+      <c r="E131">
+        <v>1</v>
+      </c>
+      <c r="F131">
+        <v>1</v>
+      </c>
+      <c r="G131">
+        <v>1</v>
+      </c>
       <c r="H131"/>
       <c r="I131"/>
     </row>
-    <row r="132" spans="8:9" ht="18.75" customHeight="1">
+    <row r="132" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A132" t="s">
+        <v>10</v>
+      </c>
+      <c r="B132" t="s">
+        <v>6</v>
+      </c>
+      <c r="C132" t="s">
+        <v>5</v>
+      </c>
+      <c r="D132" t="s">
+        <v>71</v>
+      </c>
+      <c r="E132"/>
+      <c r="F132"/>
+      <c r="G132"/>
       <c r="H132"/>
       <c r="I132"/>
     </row>
-    <row r="133" spans="8:9" ht="18.75" customHeight="1">
+    <row r="133" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A133" t="s">
+        <v>11</v>
+      </c>
+      <c r="B133" t="s">
+        <v>7</v>
+      </c>
+      <c r="C133" t="s">
+        <v>5</v>
+      </c>
+      <c r="D133" t="s">
+        <v>48</v>
+      </c>
+      <c r="E133"/>
+      <c r="F133"/>
+      <c r="G133"/>
       <c r="H133"/>
       <c r="I133"/>
     </row>
-    <row r="134" spans="8:9" ht="18.75" customHeight="1">
+    <row r="134" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A134" t="s">
+        <v>12</v>
+      </c>
+      <c r="B134" t="s">
+        <v>8</v>
+      </c>
+      <c r="C134" t="s">
+        <v>5</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E134"/>
+      <c r="F134"/>
+      <c r="G134"/>
       <c r="H134"/>
       <c r="I134"/>
     </row>
-    <row r="135" spans="8:9" ht="18.75" customHeight="1">
+    <row r="135" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A135" t="s">
+        <v>13</v>
+      </c>
+      <c r="B135" t="s">
+        <v>9</v>
+      </c>
+      <c r="C135" t="s">
+        <v>4</v>
+      </c>
+      <c r="D135"/>
+      <c r="E135">
+        <v>1</v>
+      </c>
+      <c r="F135">
+        <v>1</v>
+      </c>
+      <c r="G135">
+        <v>1</v>
+      </c>
       <c r="H135"/>
       <c r="I135"/>
     </row>
-    <row r="136" spans="8:9" ht="18.75" customHeight="1">
+    <row r="136" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A136" t="s">
+        <v>23</v>
+      </c>
+      <c r="B136" t="s">
+        <v>43</v>
+      </c>
+      <c r="C136" t="s">
+        <v>4</v>
+      </c>
+      <c r="D136"/>
+      <c r="E136">
+        <v>1</v>
+      </c>
+      <c r="F136">
+        <v>1</v>
+      </c>
+      <c r="G136">
+        <v>1</v>
+      </c>
       <c r="H136"/>
       <c r="I136"/>
     </row>
-    <row r="137" spans="8:9" ht="18.75" customHeight="1">
+    <row r="137" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A137" t="s">
+        <v>24</v>
+      </c>
+      <c r="B137" t="s">
+        <v>25</v>
+      </c>
+      <c r="C137" t="s">
+        <v>4</v>
+      </c>
+      <c r="D137"/>
+      <c r="E137">
+        <v>1</v>
+      </c>
+      <c r="F137">
+        <v>1</v>
+      </c>
+      <c r="G137">
+        <v>1</v>
+      </c>
       <c r="H137"/>
       <c r="I137"/>
     </row>
-    <row r="138" spans="8:9" ht="18.75" customHeight="1">
+    <row r="138" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A138" t="s">
+        <v>26</v>
+      </c>
+      <c r="B138" t="s">
+        <v>27</v>
+      </c>
+      <c r="C138" t="s">
+        <v>28</v>
+      </c>
+      <c r="D138"/>
+      <c r="E138"/>
+      <c r="F138"/>
+      <c r="G138"/>
       <c r="H138"/>
       <c r="I138"/>
     </row>
-    <row r="139" spans="8:9" ht="18.75" customHeight="1">
+    <row r="139" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A139" t="s">
+        <v>3</v>
+      </c>
+      <c r="B139" t="s">
+        <v>2</v>
+      </c>
+      <c r="C139" t="s">
+        <v>4</v>
+      </c>
+      <c r="D139"/>
+      <c r="E139">
+        <v>1</v>
+      </c>
+      <c r="F139">
+        <v>1</v>
+      </c>
+      <c r="G139">
+        <v>1</v>
+      </c>
       <c r="H139"/>
       <c r="I139"/>
     </row>
-    <row r="140" spans="8:9" ht="18.75" customHeight="1">
+    <row r="140" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A140" t="s">
+        <v>10</v>
+      </c>
+      <c r="B140" t="s">
+        <v>6</v>
+      </c>
+      <c r="C140" t="s">
+        <v>5</v>
+      </c>
+      <c r="D140" t="s">
+        <v>72</v>
+      </c>
+      <c r="E140"/>
+      <c r="F140"/>
+      <c r="G140"/>
       <c r="H140"/>
       <c r="I140"/>
     </row>
-    <row r="141" spans="8:9" ht="18.75" customHeight="1">
+    <row r="141" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A141" t="s">
+        <v>11</v>
+      </c>
+      <c r="B141" t="s">
+        <v>7</v>
+      </c>
+      <c r="C141" t="s">
+        <v>5</v>
+      </c>
+      <c r="D141" t="s">
+        <v>45</v>
+      </c>
+      <c r="E141"/>
+      <c r="F141"/>
+      <c r="G141"/>
       <c r="H141"/>
       <c r="I141"/>
     </row>
-    <row r="142" spans="8:9" ht="18.75" customHeight="1">
+    <row r="142" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A142" t="s">
+        <v>12</v>
+      </c>
+      <c r="B142" t="s">
+        <v>8</v>
+      </c>
+      <c r="C142" t="s">
+        <v>5</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E142"/>
+      <c r="F142"/>
+      <c r="G142"/>
       <c r="H142"/>
       <c r="I142"/>
     </row>
-    <row r="143" spans="8:9" ht="18.75" customHeight="1">
+    <row r="143" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A143" t="s">
+        <v>13</v>
+      </c>
+      <c r="B143" t="s">
+        <v>9</v>
+      </c>
+      <c r="C143" t="s">
+        <v>4</v>
+      </c>
+      <c r="D143"/>
+      <c r="E143">
+        <v>1</v>
+      </c>
+      <c r="F143">
+        <v>1</v>
+      </c>
+      <c r="G143">
+        <v>1</v>
+      </c>
       <c r="H143"/>
       <c r="I143"/>
     </row>
-    <row r="144" spans="8:9" ht="18.75" customHeight="1">
+    <row r="144" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A144" t="s">
+        <v>23</v>
+      </c>
+      <c r="B144" t="s">
+        <v>43</v>
+      </c>
+      <c r="C144" t="s">
+        <v>4</v>
+      </c>
+      <c r="D144"/>
+      <c r="E144">
+        <v>1</v>
+      </c>
+      <c r="F144">
+        <v>1</v>
+      </c>
+      <c r="G144">
+        <v>1</v>
+      </c>
       <c r="H144"/>
       <c r="I144"/>
     </row>
-    <row r="145" spans="8:9" ht="18.75" customHeight="1">
+    <row r="145" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A145" t="s">
+        <v>24</v>
+      </c>
+      <c r="B145" t="s">
+        <v>25</v>
+      </c>
+      <c r="C145" t="s">
+        <v>4</v>
+      </c>
+      <c r="D145"/>
+      <c r="E145">
+        <v>1</v>
+      </c>
+      <c r="F145">
+        <v>1</v>
+      </c>
+      <c r="G145">
+        <v>1</v>
+      </c>
       <c r="H145"/>
       <c r="I145"/>
     </row>
-    <row r="146" spans="8:9" ht="18.75" customHeight="1">
+    <row r="146" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A146" t="s">
+        <v>26</v>
+      </c>
+      <c r="B146" t="s">
+        <v>27</v>
+      </c>
+      <c r="C146" t="s">
+        <v>28</v>
+      </c>
+      <c r="D146"/>
+      <c r="E146"/>
+      <c r="F146"/>
+      <c r="G146"/>
       <c r="H146"/>
       <c r="I146"/>
     </row>
-    <row r="147" spans="8:9" ht="18.75" customHeight="1">
+    <row r="147" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A147" t="s">
+        <v>3</v>
+      </c>
+      <c r="B147" t="s">
+        <v>2</v>
+      </c>
+      <c r="C147" t="s">
+        <v>4</v>
+      </c>
+      <c r="D147"/>
+      <c r="E147">
+        <v>1</v>
+      </c>
+      <c r="F147">
+        <v>1</v>
+      </c>
+      <c r="G147">
+        <v>1</v>
+      </c>
       <c r="H147"/>
       <c r="I147"/>
     </row>
-    <row r="148" spans="8:9" ht="18.75" customHeight="1">
+    <row r="148" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A148" t="s">
+        <v>10</v>
+      </c>
+      <c r="B148" t="s">
+        <v>6</v>
+      </c>
+      <c r="C148" t="s">
+        <v>5</v>
+      </c>
+      <c r="D148" t="s">
+        <v>73</v>
+      </c>
+      <c r="E148"/>
+      <c r="F148"/>
+      <c r="G148"/>
       <c r="H148"/>
       <c r="I148"/>
     </row>
-    <row r="149" spans="8:9" ht="18.75" customHeight="1">
+    <row r="149" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A149" t="s">
+        <v>11</v>
+      </c>
+      <c r="B149" t="s">
+        <v>7</v>
+      </c>
+      <c r="C149" t="s">
+        <v>5</v>
+      </c>
+      <c r="D149" t="s">
+        <v>48</v>
+      </c>
+      <c r="E149"/>
+      <c r="F149"/>
+      <c r="G149"/>
       <c r="H149"/>
       <c r="I149"/>
     </row>
-    <row r="150" spans="8:9" ht="18.75" customHeight="1">
+    <row r="150" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A150" t="s">
+        <v>12</v>
+      </c>
+      <c r="B150" t="s">
+        <v>8</v>
+      </c>
+      <c r="C150" t="s">
+        <v>5</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E150"/>
+      <c r="F150"/>
+      <c r="G150"/>
       <c r="H150"/>
       <c r="I150"/>
     </row>
-    <row r="151" spans="8:9" ht="18.75" customHeight="1">
+    <row r="151" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A151" t="s">
+        <v>13</v>
+      </c>
+      <c r="B151" t="s">
+        <v>9</v>
+      </c>
+      <c r="C151" t="s">
+        <v>4</v>
+      </c>
+      <c r="D151"/>
+      <c r="E151">
+        <v>1</v>
+      </c>
+      <c r="F151">
+        <v>1</v>
+      </c>
+      <c r="G151">
+        <v>1</v>
+      </c>
       <c r="H151"/>
       <c r="I151"/>
     </row>
-    <row r="152" spans="8:9" ht="18.75" customHeight="1">
+    <row r="152" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A152" t="s">
+        <v>23</v>
+      </c>
+      <c r="B152" t="s">
+        <v>43</v>
+      </c>
+      <c r="C152" t="s">
+        <v>4</v>
+      </c>
+      <c r="D152"/>
+      <c r="E152">
+        <v>1</v>
+      </c>
+      <c r="F152">
+        <v>1</v>
+      </c>
+      <c r="G152">
+        <v>1</v>
+      </c>
       <c r="H152"/>
       <c r="I152"/>
     </row>
-    <row r="153" spans="8:9" ht="18.75" customHeight="1">
+    <row r="153" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A153" t="s">
+        <v>24</v>
+      </c>
+      <c r="B153" t="s">
+        <v>25</v>
+      </c>
+      <c r="C153" t="s">
+        <v>4</v>
+      </c>
+      <c r="D153"/>
+      <c r="E153">
+        <v>1</v>
+      </c>
+      <c r="F153">
+        <v>1</v>
+      </c>
+      <c r="G153">
+        <v>1</v>
+      </c>
       <c r="H153"/>
       <c r="I153"/>
     </row>
-    <row r="154" spans="8:9" ht="18.75" customHeight="1">
+    <row r="154" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A154" t="s">
+        <v>26</v>
+      </c>
+      <c r="B154" t="s">
+        <v>27</v>
+      </c>
+      <c r="C154" t="s">
+        <v>28</v>
+      </c>
+      <c r="D154"/>
+      <c r="E154"/>
+      <c r="F154"/>
+      <c r="G154"/>
       <c r="H154"/>
       <c r="I154"/>
     </row>
-    <row r="155" spans="8:9" ht="18.75" customHeight="1">
+    <row r="155" spans="1:9" ht="18.75" customHeight="1">
       <c r="H155"/>
       <c r="I155"/>
     </row>
-    <row r="156" spans="8:9" ht="18.75" customHeight="1">
+    <row r="156" spans="1:9" ht="18.75" customHeight="1">
       <c r="H156"/>
       <c r="I156"/>
     </row>
-    <row r="157" spans="8:9" ht="18.75" customHeight="1">
+    <row r="157" spans="1:9" ht="18.75" customHeight="1">
       <c r="H157"/>
       <c r="I157"/>
     </row>
-    <row r="158" spans="8:9" ht="18.75" customHeight="1">
+    <row r="158" spans="1:9" ht="18.75" customHeight="1">
       <c r="H158"/>
       <c r="I158"/>
     </row>
-    <row r="159" spans="8:9" ht="18.75" customHeight="1">
+    <row r="159" spans="1:9" ht="18.75" customHeight="1">
       <c r="H159"/>
       <c r="I159"/>
     </row>
-    <row r="160" spans="8:9" ht="18.75" customHeight="1">
+    <row r="160" spans="1:9" ht="18.75" customHeight="1">
       <c r="H160"/>
       <c r="I160"/>
     </row>
@@ -3305,38 +3875,6 @@
     <row r="169" spans="8:9" ht="18.75" customHeight="1">
       <c r="H169"/>
       <c r="I169"/>
-    </row>
-    <row r="170" spans="8:9" ht="18.75" customHeight="1">
-      <c r="H170"/>
-      <c r="I170"/>
-    </row>
-    <row r="171" spans="8:9" ht="18.75" customHeight="1">
-      <c r="H171"/>
-      <c r="I171"/>
-    </row>
-    <row r="172" spans="8:9" ht="18.75" customHeight="1">
-      <c r="H172"/>
-      <c r="I172"/>
-    </row>
-    <row r="173" spans="8:9" ht="18.75" customHeight="1">
-      <c r="H173"/>
-      <c r="I173"/>
-    </row>
-    <row r="174" spans="8:9" ht="18.75" customHeight="1">
-      <c r="H174"/>
-      <c r="I174"/>
-    </row>
-    <row r="175" spans="8:9" ht="18.75" customHeight="1">
-      <c r="H175"/>
-      <c r="I175"/>
-    </row>
-    <row r="176" spans="8:9" ht="18.75" customHeight="1">
-      <c r="H176"/>
-      <c r="I176"/>
-    </row>
-    <row r="177" spans="8:9" ht="18.75" customHeight="1">
-      <c r="H177"/>
-      <c r="I177"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -3349,9 +3887,13 @@
     <hyperlink ref="D54" r:id="rId7"/>
     <hyperlink ref="D62" r:id="rId8"/>
     <hyperlink ref="D70" r:id="rId9"/>
+    <hyperlink ref="D126" r:id="rId10"/>
+    <hyperlink ref="D134" r:id="rId11"/>
+    <hyperlink ref="D142" r:id="rId12"/>
+    <hyperlink ref="D150" r:id="rId13"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId10"/>
+  <pageSetup orientation="portrait" r:id="rId14"/>
 </worksheet>
 </file>
 
@@ -3371,7 +3913,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>

--- a/resources/AccountCreation.xlsx
+++ b/resources/AccountCreation.xlsx
@@ -150,9 +150,6 @@
     <t>//div[text() = 'ORDERMGR']</t>
   </si>
   <si>
-    <t>clinicain</t>
-  </si>
-  <si>
     <t>user1</t>
   </si>
   <si>
@@ -250,6 +247,9 @@
   </si>
   <si>
     <t>cqmanager.user1@cvhcare.com</t>
+  </si>
+  <si>
+    <t>(//button[@ng-click="vm.newUserClick($event)"])[1]</t>
   </si>
 </sst>
 </file>
@@ -599,14 +599,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="D141" sqref="D141"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.28515625" defaultRowHeight="18.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="32.28515625" style="1"/>
-    <col min="2" max="2" width="43.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="45.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="32.28515625" style="1"/>
   </cols>
   <sheetData>
@@ -657,7 +657,7 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H2"/>
       <c r="I2"/>
@@ -667,7 +667,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>77</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
@@ -696,7 +696,7 @@
         <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E4"/>
       <c r="F4"/>
@@ -715,7 +715,7 @@
         <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E5"/>
       <c r="F5"/>
@@ -734,7 +734,7 @@
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E6"/>
       <c r="F6"/>
@@ -862,7 +862,7 @@
         <v>5</v>
       </c>
       <c r="D12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E12"/>
       <c r="F12"/>
@@ -881,7 +881,7 @@
         <v>5</v>
       </c>
       <c r="D13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E13"/>
       <c r="F13"/>
@@ -900,7 +900,7 @@
         <v>5</v>
       </c>
       <c r="D14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E14"/>
       <c r="F14"/>
@@ -1028,7 +1028,7 @@
         <v>5</v>
       </c>
       <c r="D20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E20"/>
       <c r="F20"/>
@@ -1047,7 +1047,7 @@
         <v>5</v>
       </c>
       <c r="D21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E21"/>
       <c r="F21"/>
@@ -1066,7 +1066,7 @@
         <v>5</v>
       </c>
       <c r="D22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E22"/>
       <c r="F22"/>
@@ -1194,7 +1194,7 @@
         <v>5</v>
       </c>
       <c r="D28" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E28"/>
       <c r="F28"/>
@@ -1213,7 +1213,7 @@
         <v>5</v>
       </c>
       <c r="D29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E29"/>
       <c r="F29"/>
@@ -1232,7 +1232,7 @@
         <v>5</v>
       </c>
       <c r="D30" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E30"/>
       <c r="F30"/>
@@ -1360,7 +1360,7 @@
         <v>5</v>
       </c>
       <c r="D36" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E36"/>
       <c r="F36"/>
@@ -1379,7 +1379,7 @@
         <v>5</v>
       </c>
       <c r="D37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E37"/>
       <c r="F37"/>
@@ -1398,7 +1398,7 @@
         <v>5</v>
       </c>
       <c r="D38" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E38"/>
       <c r="F38"/>
@@ -1526,7 +1526,7 @@
         <v>5</v>
       </c>
       <c r="D44" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E44"/>
       <c r="F44"/>
@@ -1545,7 +1545,7 @@
         <v>5</v>
       </c>
       <c r="D45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E45"/>
       <c r="F45"/>
@@ -1564,7 +1564,7 @@
         <v>5</v>
       </c>
       <c r="D46" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E46"/>
       <c r="F46"/>
@@ -1692,7 +1692,7 @@
         <v>5</v>
       </c>
       <c r="D52" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E52"/>
       <c r="F52"/>
@@ -1711,7 +1711,7 @@
         <v>5</v>
       </c>
       <c r="D53" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E53"/>
       <c r="F53"/>
@@ -1730,7 +1730,7 @@
         <v>5</v>
       </c>
       <c r="D54" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E54"/>
       <c r="F54"/>
@@ -1858,7 +1858,7 @@
         <v>5</v>
       </c>
       <c r="D60" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E60"/>
       <c r="F60"/>
@@ -1877,7 +1877,7 @@
         <v>5</v>
       </c>
       <c r="D61" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E61"/>
       <c r="F61"/>
@@ -1896,7 +1896,7 @@
         <v>5</v>
       </c>
       <c r="D62" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E62"/>
       <c r="F62"/>
@@ -2024,7 +2024,7 @@
         <v>5</v>
       </c>
       <c r="D68" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E68"/>
       <c r="F68"/>
@@ -2043,7 +2043,7 @@
         <v>5</v>
       </c>
       <c r="D69" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E69"/>
       <c r="F69"/>
@@ -2062,7 +2062,7 @@
         <v>5</v>
       </c>
       <c r="D70" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E70"/>
       <c r="F70"/>
@@ -2190,7 +2190,7 @@
         <v>5</v>
       </c>
       <c r="D76" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E76"/>
       <c r="F76"/>
@@ -2209,7 +2209,7 @@
         <v>5</v>
       </c>
       <c r="D77" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E77"/>
       <c r="F77"/>
@@ -2228,7 +2228,7 @@
         <v>5</v>
       </c>
       <c r="D78" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E78"/>
       <c r="F78"/>
@@ -2356,7 +2356,7 @@
         <v>5</v>
       </c>
       <c r="D84" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E84"/>
       <c r="F84"/>
@@ -2375,7 +2375,7 @@
         <v>5</v>
       </c>
       <c r="D85" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E85"/>
       <c r="F85"/>
@@ -2394,7 +2394,7 @@
         <v>5</v>
       </c>
       <c r="D86" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E86"/>
       <c r="F86"/>
@@ -2522,7 +2522,7 @@
         <v>5</v>
       </c>
       <c r="D92" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E92"/>
       <c r="F92"/>
@@ -2541,7 +2541,7 @@
         <v>5</v>
       </c>
       <c r="D93" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E93"/>
       <c r="F93"/>
@@ -2560,7 +2560,7 @@
         <v>5</v>
       </c>
       <c r="D94" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E94"/>
       <c r="F94"/>
@@ -2688,7 +2688,7 @@
         <v>5</v>
       </c>
       <c r="D100" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E100"/>
       <c r="F100"/>
@@ -2707,7 +2707,7 @@
         <v>5</v>
       </c>
       <c r="D101" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E101"/>
       <c r="F101"/>
@@ -2726,7 +2726,7 @@
         <v>5</v>
       </c>
       <c r="D102" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E102"/>
       <c r="F102"/>
@@ -2854,7 +2854,7 @@
         <v>5</v>
       </c>
       <c r="D108" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E108"/>
       <c r="F108"/>
@@ -2873,7 +2873,7 @@
         <v>5</v>
       </c>
       <c r="D109" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E109"/>
       <c r="F109"/>
@@ -2892,7 +2892,7 @@
         <v>5</v>
       </c>
       <c r="D110" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E110"/>
       <c r="F110"/>
@@ -3020,7 +3020,7 @@
         <v>5</v>
       </c>
       <c r="D116" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E116"/>
       <c r="F116"/>
@@ -3039,7 +3039,7 @@
         <v>5</v>
       </c>
       <c r="D117" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E117"/>
       <c r="F117"/>
@@ -3058,7 +3058,7 @@
         <v>5</v>
       </c>
       <c r="D118" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E118"/>
       <c r="F118"/>
@@ -3186,7 +3186,7 @@
         <v>5</v>
       </c>
       <c r="D124" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E124"/>
       <c r="F124"/>
@@ -3205,7 +3205,7 @@
         <v>5</v>
       </c>
       <c r="D125" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E125"/>
       <c r="F125"/>
@@ -3224,7 +3224,7 @@
         <v>5</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E126"/>
       <c r="F126"/>
@@ -3352,7 +3352,7 @@
         <v>5</v>
       </c>
       <c r="D132" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E132"/>
       <c r="F132"/>
@@ -3371,7 +3371,7 @@
         <v>5</v>
       </c>
       <c r="D133" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E133"/>
       <c r="F133"/>
@@ -3390,7 +3390,7 @@
         <v>5</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E134"/>
       <c r="F134"/>
@@ -3518,7 +3518,7 @@
         <v>5</v>
       </c>
       <c r="D140" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E140"/>
       <c r="F140"/>
@@ -3537,7 +3537,7 @@
         <v>5</v>
       </c>
       <c r="D141" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E141"/>
       <c r="F141"/>
@@ -3556,7 +3556,7 @@
         <v>5</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E142"/>
       <c r="F142"/>
@@ -3684,7 +3684,7 @@
         <v>5</v>
       </c>
       <c r="D148" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E148"/>
       <c r="F148"/>
@@ -3703,7 +3703,7 @@
         <v>5</v>
       </c>
       <c r="D149" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E149"/>
       <c r="F149"/>
@@ -3722,7 +3722,7 @@
         <v>5</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E150"/>
       <c r="F150"/>

--- a/resources/AccountCreation.xlsx
+++ b/resources/AccountCreation.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="109">
   <si>
     <t>//button[@aria-label="Account Management"]</t>
   </si>
@@ -250,6 +250,99 @@
   </si>
   <si>
     <t>(//button[@ng-click="vm.newUserClick($event)"])[1]</t>
+  </si>
+  <si>
+    <t>qa</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>qa@cvhcare.com</t>
+  </si>
+  <si>
+    <t>/html/body/div/div/md-content/md-content/div/md-content/md-list/md-list/md-list-item[1]/div/button</t>
+  </si>
+  <si>
+    <t>select first user</t>
+  </si>
+  <si>
+    <t>checked</t>
+  </si>
+  <si>
+    <t>(//form[@class="padding-20 ng-pristine ng-valid layout-wrap layout-row flex"]//md-checkbox)[2]</t>
+  </si>
+  <si>
+    <t>(//form[@class="padding-20 ng-pristine ng-valid layout-wrap layout-row flex"]//md-checkbox)[3]</t>
+  </si>
+  <si>
+    <t>(//form[@class="padding-20 ng-pristine ng-valid layout-wrap layout-row flex"]//md-checkbox)[4]</t>
+  </si>
+  <si>
+    <t>(//form[@class="padding-20 ng-pristine ng-valid layout-wrap layout-row flex"]//md-checkbox)[5]</t>
+  </si>
+  <si>
+    <t>(//form[@class="padding-20 ng-pristine ng-valid layout-wrap layout-row flex"]//md-checkbox)[6]</t>
+  </si>
+  <si>
+    <t>(//form[@class="padding-20 ng-pristine ng-valid layout-wrap layout-row flex"]//md-checkbox)[7]</t>
+  </si>
+  <si>
+    <t>(//form[@class="padding-20 ng-pristine ng-valid layout-wrap layout-row flex"]//md-checkbox)[8]</t>
+  </si>
+  <si>
+    <t>(//form[@class="padding-20 ng-pristine ng-valid layout-wrap layout-row flex"]//md-checkbox)[9]</t>
+  </si>
+  <si>
+    <t>(//form[@class="padding-20 ng-pristine ng-valid layout-wrap layout-row flex"]//md-checkbox)[10]</t>
+  </si>
+  <si>
+    <t>(//form[@class="padding-20 ng-pristine ng-valid layout-wrap layout-row flex"]//md-checkbox)[11]</t>
+  </si>
+  <si>
+    <t>(//form[@class="padding-20 ng-pristine ng-valid layout-wrap layout-row flex"]//md-checkbox)[12]</t>
+  </si>
+  <si>
+    <t>(//form[@class="padding-20 ng-pristine ng-valid layout-wrap layout-row flex"]//md-checkbox)[13]</t>
+  </si>
+  <si>
+    <t>(//form[@class="padding-20 ng-pristine ng-valid layout-wrap layout-row flex"]//md-checkbox)[14]</t>
+  </si>
+  <si>
+    <t>(//form[@class="padding-20 ng-pristine ng-valid layout-wrap layout-row flex"]//md-checkbox)[15]</t>
+  </si>
+  <si>
+    <t>(//form[@class="padding-20 ng-pristine ng-valid layout-wrap layout-row flex"]//md-checkbox)[16]</t>
+  </si>
+  <si>
+    <t>(//form[@class="padding-20 ng-pristine ng-valid layout-wrap layout-row flex"]//md-checkbox)[17]</t>
+  </si>
+  <si>
+    <t>(//form[@class="padding-20 ng-pristine ng-valid layout-wrap layout-row flex"]//md-checkbox)[18]</t>
+  </si>
+  <si>
+    <t>(//form[@class="padding-20 ng-pristine ng-valid layout-wrap layout-row flex"]//md-checkbox)[19]</t>
+  </si>
+  <si>
+    <t>(//form[@class="padding-20 ng-pristine ng-valid layout-wrap layout-row flex"]//md-checkbox)[20]</t>
+  </si>
+  <si>
+    <t>(//form[@class="padding-20 ng-pristine ng-valid layout-wrap layout-row flex"]//md-checkbox)[21]</t>
+  </si>
+  <si>
+    <t>(//form[@class="padding-20 ng-pristine ng-valid layout-wrap layout-row flex"]//md-checkbox)[22]</t>
+  </si>
+  <si>
+    <t>(//form[@class="padding-20 ng-pristine ng-valid layout-wrap layout-row flex"]//md-checkbox)[23]</t>
+  </si>
+  <si>
+    <t>(//form[@class="padding-20 ng-pristine ng-valid layout-wrap layout-row flex"]//md-checkbox)[24]</t>
+  </si>
+  <si>
+    <t>(//form[@class="padding-20 ng-pristine ng-valid layout-wrap layout-row flex"]//md-checkbox)[25]</t>
+  </si>
+  <si>
+    <t>(//form[@class="padding-20 ng-pristine ng-valid layout-wrap layout-row flex"]//md-checkbox)[26]</t>
   </si>
 </sst>
 </file>
@@ -597,10 +690,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I169"/>
+  <dimension ref="A1:I188"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
+      <selection activeCell="B174" sqref="B174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.28515625" defaultRowHeight="18.75" customHeight="1"/>
@@ -3817,64 +3910,627 @@
       <c r="I154"/>
     </row>
     <row r="155" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A155" t="s">
+        <v>3</v>
+      </c>
+      <c r="B155" t="s">
+        <v>2</v>
+      </c>
+      <c r="C155" t="s">
+        <v>4</v>
+      </c>
+      <c r="D155"/>
+      <c r="E155">
+        <v>1</v>
+      </c>
+      <c r="F155">
+        <v>1</v>
+      </c>
+      <c r="G155">
+        <v>1</v>
+      </c>
       <c r="H155"/>
       <c r="I155"/>
     </row>
     <row r="156" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A156" t="s">
+        <v>10</v>
+      </c>
+      <c r="B156" t="s">
+        <v>6</v>
+      </c>
+      <c r="C156" t="s">
+        <v>5</v>
+      </c>
+      <c r="D156" t="s">
+        <v>78</v>
+      </c>
+      <c r="E156"/>
+      <c r="F156"/>
+      <c r="G156"/>
       <c r="H156"/>
       <c r="I156"/>
     </row>
     <row r="157" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A157" t="s">
+        <v>11</v>
+      </c>
+      <c r="B157" t="s">
+        <v>7</v>
+      </c>
+      <c r="C157" t="s">
+        <v>5</v>
+      </c>
+      <c r="D157" t="s">
+        <v>79</v>
+      </c>
+      <c r="E157"/>
+      <c r="F157"/>
+      <c r="G157"/>
       <c r="H157"/>
       <c r="I157"/>
     </row>
     <row r="158" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A158" t="s">
+        <v>12</v>
+      </c>
+      <c r="B158" t="s">
+        <v>8</v>
+      </c>
+      <c r="C158" t="s">
+        <v>5</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E158"/>
+      <c r="F158"/>
+      <c r="G158"/>
       <c r="H158"/>
       <c r="I158"/>
     </row>
     <row r="159" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A159" t="s">
+        <v>13</v>
+      </c>
+      <c r="B159" t="s">
+        <v>9</v>
+      </c>
+      <c r="C159" t="s">
+        <v>4</v>
+      </c>
+      <c r="D159"/>
+      <c r="E159">
+        <v>1</v>
+      </c>
+      <c r="F159">
+        <v>1</v>
+      </c>
+      <c r="G159">
+        <v>1</v>
+      </c>
       <c r="H159"/>
       <c r="I159"/>
     </row>
     <row r="160" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A160" t="s">
+        <v>23</v>
+      </c>
+      <c r="B160" t="s">
+        <v>43</v>
+      </c>
+      <c r="C160" t="s">
+        <v>4</v>
+      </c>
+      <c r="D160"/>
+      <c r="E160">
+        <v>1</v>
+      </c>
+      <c r="F160">
+        <v>1</v>
+      </c>
+      <c r="G160">
+        <v>3</v>
+      </c>
       <c r="H160"/>
       <c r="I160"/>
     </row>
-    <row r="161" spans="8:9" ht="18.75" customHeight="1">
+    <row r="161" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A161" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E161" s="1">
+        <v>1</v>
+      </c>
+      <c r="F161" s="1">
+        <v>1</v>
+      </c>
+      <c r="G161" s="1">
+        <v>3</v>
+      </c>
       <c r="H161"/>
       <c r="I161"/>
     </row>
-    <row r="162" spans="8:9" ht="18.75" customHeight="1">
+    <row r="162" spans="1:9" ht="18.75" customHeight="1">
+      <c r="B162" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E162" s="1">
+        <v>1</v>
+      </c>
+      <c r="F162" s="1">
+        <v>1</v>
+      </c>
+      <c r="G162" s="1">
+        <v>1</v>
+      </c>
       <c r="H162"/>
       <c r="I162"/>
     </row>
-    <row r="163" spans="8:9" ht="18.75" customHeight="1">
+    <row r="163" spans="1:9" ht="18.75" customHeight="1">
+      <c r="B163" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E163" s="1">
+        <v>1</v>
+      </c>
+      <c r="F163" s="1">
+        <v>1</v>
+      </c>
+      <c r="G163" s="1">
+        <v>1</v>
+      </c>
       <c r="H163"/>
       <c r="I163"/>
     </row>
-    <row r="164" spans="8:9" ht="18.75" customHeight="1">
+    <row r="164" spans="1:9" ht="18.75" customHeight="1">
+      <c r="B164" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E164" s="1">
+        <v>1</v>
+      </c>
+      <c r="F164" s="1">
+        <v>1</v>
+      </c>
+      <c r="G164" s="1">
+        <v>1</v>
+      </c>
       <c r="H164"/>
       <c r="I164"/>
     </row>
-    <row r="165" spans="8:9" ht="18.75" customHeight="1">
+    <row r="165" spans="1:9" ht="18.75" customHeight="1">
+      <c r="B165" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E165" s="1">
+        <v>1</v>
+      </c>
+      <c r="F165" s="1">
+        <v>1</v>
+      </c>
+      <c r="G165" s="1">
+        <v>1</v>
+      </c>
       <c r="H165"/>
       <c r="I165"/>
     </row>
-    <row r="166" spans="8:9" ht="18.75" customHeight="1">
+    <row r="166" spans="1:9" ht="18.75" customHeight="1">
+      <c r="B166" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E166" s="1">
+        <v>1</v>
+      </c>
+      <c r="F166" s="1">
+        <v>1</v>
+      </c>
+      <c r="G166" s="1">
+        <v>1</v>
+      </c>
       <c r="H166"/>
       <c r="I166"/>
     </row>
-    <row r="167" spans="8:9" ht="18.75" customHeight="1">
+    <row r="167" spans="1:9" ht="18.75" customHeight="1">
+      <c r="B167" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E167" s="1">
+        <v>1</v>
+      </c>
+      <c r="F167" s="1">
+        <v>1</v>
+      </c>
+      <c r="G167" s="1">
+        <v>1</v>
+      </c>
       <c r="H167"/>
       <c r="I167"/>
     </row>
-    <row r="168" spans="8:9" ht="18.75" customHeight="1">
+    <row r="168" spans="1:9" ht="18.75" customHeight="1">
+      <c r="B168" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E168" s="1">
+        <v>1</v>
+      </c>
+      <c r="F168" s="1">
+        <v>1</v>
+      </c>
+      <c r="G168" s="1">
+        <v>1</v>
+      </c>
       <c r="H168"/>
       <c r="I168"/>
     </row>
-    <row r="169" spans="8:9" ht="18.75" customHeight="1">
-      <c r="H169"/>
-      <c r="I169"/>
+    <row r="169" spans="1:9" ht="18.75" customHeight="1">
+      <c r="B169" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E169" s="1">
+        <v>1</v>
+      </c>
+      <c r="F169" s="1">
+        <v>1</v>
+      </c>
+      <c r="G169" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" ht="18.75" customHeight="1">
+      <c r="B170" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E170" s="1">
+        <v>1</v>
+      </c>
+      <c r="F170" s="1">
+        <v>1</v>
+      </c>
+      <c r="G170" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" ht="18.75" customHeight="1">
+      <c r="B171" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E171" s="1">
+        <v>1</v>
+      </c>
+      <c r="F171" s="1">
+        <v>1</v>
+      </c>
+      <c r="G171" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" ht="18.75" customHeight="1">
+      <c r="B172" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E172" s="1">
+        <v>1</v>
+      </c>
+      <c r="F172" s="1">
+        <v>1</v>
+      </c>
+      <c r="G172" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" ht="18.75" customHeight="1">
+      <c r="B173" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E173" s="1">
+        <v>1</v>
+      </c>
+      <c r="F173" s="1">
+        <v>1</v>
+      </c>
+      <c r="G173" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" ht="18.75" customHeight="1">
+      <c r="B174" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E174" s="1">
+        <v>1</v>
+      </c>
+      <c r="F174" s="1">
+        <v>1</v>
+      </c>
+      <c r="G174" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" ht="18.75" customHeight="1">
+      <c r="B175" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E175" s="1">
+        <v>1</v>
+      </c>
+      <c r="F175" s="1">
+        <v>1</v>
+      </c>
+      <c r="G175" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" ht="18.75" customHeight="1">
+      <c r="B176" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E176" s="1">
+        <v>1</v>
+      </c>
+      <c r="F176" s="1">
+        <v>1</v>
+      </c>
+      <c r="G176" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" ht="18.75" customHeight="1">
+      <c r="B177" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E177" s="1">
+        <v>1</v>
+      </c>
+      <c r="F177" s="1">
+        <v>1</v>
+      </c>
+      <c r="G177" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" ht="18.75" customHeight="1">
+      <c r="B178" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E178" s="1">
+        <v>1</v>
+      </c>
+      <c r="F178" s="1">
+        <v>1</v>
+      </c>
+      <c r="G178" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" ht="18.75" customHeight="1">
+      <c r="B179" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E179" s="1">
+        <v>1</v>
+      </c>
+      <c r="F179" s="1">
+        <v>1</v>
+      </c>
+      <c r="G179" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" ht="18.75" customHeight="1">
+      <c r="B180" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E180" s="1">
+        <v>1</v>
+      </c>
+      <c r="F180" s="1">
+        <v>1</v>
+      </c>
+      <c r="G180" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" ht="18.75" customHeight="1">
+      <c r="B181" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E181" s="1">
+        <v>1</v>
+      </c>
+      <c r="F181" s="1">
+        <v>1</v>
+      </c>
+      <c r="G181" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" ht="18.75" customHeight="1">
+      <c r="B182" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E182" s="1">
+        <v>1</v>
+      </c>
+      <c r="F182" s="1">
+        <v>1</v>
+      </c>
+      <c r="G182" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" ht="18.75" customHeight="1">
+      <c r="B183" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E183" s="1">
+        <v>1</v>
+      </c>
+      <c r="F183" s="1">
+        <v>1</v>
+      </c>
+      <c r="G183" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" ht="18.75" customHeight="1">
+      <c r="B184" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E184" s="1">
+        <v>1</v>
+      </c>
+      <c r="F184" s="1">
+        <v>1</v>
+      </c>
+      <c r="G184" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" ht="18.75" customHeight="1">
+      <c r="B185" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E185" s="1">
+        <v>1</v>
+      </c>
+      <c r="F185" s="1">
+        <v>1</v>
+      </c>
+      <c r="G185" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" ht="18.75" customHeight="1">
+      <c r="B186" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E186" s="1">
+        <v>1</v>
+      </c>
+      <c r="F186" s="1">
+        <v>1</v>
+      </c>
+      <c r="G186" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" ht="18.75" customHeight="1">
+      <c r="A187" t="s">
+        <v>24</v>
+      </c>
+      <c r="B187" t="s">
+        <v>25</v>
+      </c>
+      <c r="C187" t="s">
+        <v>4</v>
+      </c>
+      <c r="D187"/>
+      <c r="E187">
+        <v>1</v>
+      </c>
+      <c r="F187">
+        <v>1</v>
+      </c>
+      <c r="G187">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" ht="18.75" customHeight="1">
+      <c r="A188" t="s">
+        <v>26</v>
+      </c>
+      <c r="B188" t="s">
+        <v>27</v>
+      </c>
+      <c r="C188" t="s">
+        <v>28</v>
+      </c>
+      <c r="D188"/>
+      <c r="E188"/>
+      <c r="F188"/>
+      <c r="G188"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -3891,9 +4547,10 @@
     <hyperlink ref="D134" r:id="rId11"/>
     <hyperlink ref="D142" r:id="rId12"/>
     <hyperlink ref="D150" r:id="rId13"/>
+    <hyperlink ref="D158" r:id="rId14"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId14"/>
+  <pageSetup orientation="portrait" r:id="rId15"/>
 </worksheet>
 </file>
 

--- a/resources/AccountCreation.xlsx
+++ b/resources/AccountCreation.xlsx
@@ -252,9 +252,6 @@
     <t>(//button[@ng-click="vm.newUserClick($event)"])[1]</t>
   </si>
   <si>
-    <t>qa</t>
-  </si>
-  <si>
     <t>user</t>
   </si>
   <si>
@@ -343,6 +340,9 @@
   </si>
   <si>
     <t>(//form[@class="padding-20 ng-pristine ng-valid layout-wrap layout-row flex"]//md-checkbox)[26]</t>
+  </si>
+  <si>
+    <t>qa1</t>
   </si>
 </sst>
 </file>
@@ -692,8 +692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I188"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
-      <selection activeCell="B174" sqref="B174"/>
+    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
+      <selection activeCell="C161" sqref="C161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.28515625" defaultRowHeight="18.75" customHeight="1"/>
@@ -3943,7 +3943,7 @@
         <v>5</v>
       </c>
       <c r="D156" t="s">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="E156"/>
       <c r="F156"/>
@@ -3962,7 +3962,7 @@
         <v>5</v>
       </c>
       <c r="D157" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E157"/>
       <c r="F157"/>
@@ -3981,7 +3981,7 @@
         <v>5</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E158"/>
       <c r="F158"/>
@@ -4037,10 +4037,10 @@
     </row>
     <row r="161" spans="1:9" ht="18.75" customHeight="1">
       <c r="A161" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C161" s="1" t="s">
         <v>4</v>
@@ -4059,10 +4059,10 @@
     </row>
     <row r="162" spans="1:9" ht="18.75" customHeight="1">
       <c r="B162" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E162" s="1">
         <v>1</v>
@@ -4078,10 +4078,10 @@
     </row>
     <row r="163" spans="1:9" ht="18.75" customHeight="1">
       <c r="B163" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E163" s="1">
         <v>1</v>
@@ -4097,10 +4097,10 @@
     </row>
     <row r="164" spans="1:9" ht="18.75" customHeight="1">
       <c r="B164" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E164" s="1">
         <v>1</v>
@@ -4116,10 +4116,10 @@
     </row>
     <row r="165" spans="1:9" ht="18.75" customHeight="1">
       <c r="B165" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E165" s="1">
         <v>1</v>
@@ -4135,10 +4135,10 @@
     </row>
     <row r="166" spans="1:9" ht="18.75" customHeight="1">
       <c r="B166" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E166" s="1">
         <v>1</v>
@@ -4154,10 +4154,10 @@
     </row>
     <row r="167" spans="1:9" ht="18.75" customHeight="1">
       <c r="B167" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E167" s="1">
         <v>1</v>
@@ -4173,10 +4173,10 @@
     </row>
     <row r="168" spans="1:9" ht="18.75" customHeight="1">
       <c r="B168" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E168" s="1">
         <v>1</v>
@@ -4192,10 +4192,10 @@
     </row>
     <row r="169" spans="1:9" ht="18.75" customHeight="1">
       <c r="B169" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E169" s="1">
         <v>1</v>
@@ -4209,10 +4209,10 @@
     </row>
     <row r="170" spans="1:9" ht="18.75" customHeight="1">
       <c r="B170" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E170" s="1">
         <v>1</v>
@@ -4226,10 +4226,10 @@
     </row>
     <row r="171" spans="1:9" ht="18.75" customHeight="1">
       <c r="B171" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E171" s="1">
         <v>1</v>
@@ -4243,10 +4243,10 @@
     </row>
     <row r="172" spans="1:9" ht="18.75" customHeight="1">
       <c r="B172" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E172" s="1">
         <v>1</v>
@@ -4260,10 +4260,10 @@
     </row>
     <row r="173" spans="1:9" ht="18.75" customHeight="1">
       <c r="B173" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E173" s="1">
         <v>1</v>
@@ -4277,10 +4277,10 @@
     </row>
     <row r="174" spans="1:9" ht="18.75" customHeight="1">
       <c r="B174" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E174" s="1">
         <v>1</v>
@@ -4294,10 +4294,10 @@
     </row>
     <row r="175" spans="1:9" ht="18.75" customHeight="1">
       <c r="B175" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E175" s="1">
         <v>1</v>
@@ -4311,10 +4311,10 @@
     </row>
     <row r="176" spans="1:9" ht="18.75" customHeight="1">
       <c r="B176" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E176" s="1">
         <v>1</v>
@@ -4328,10 +4328,10 @@
     </row>
     <row r="177" spans="1:7" ht="18.75" customHeight="1">
       <c r="B177" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E177" s="1">
         <v>1</v>
@@ -4345,10 +4345,10 @@
     </row>
     <row r="178" spans="1:7" ht="18.75" customHeight="1">
       <c r="B178" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E178" s="1">
         <v>1</v>
@@ -4362,10 +4362,10 @@
     </row>
     <row r="179" spans="1:7" ht="18.75" customHeight="1">
       <c r="B179" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E179" s="1">
         <v>1</v>
@@ -4379,10 +4379,10 @@
     </row>
     <row r="180" spans="1:7" ht="18.75" customHeight="1">
       <c r="B180" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E180" s="1">
         <v>1</v>
@@ -4396,10 +4396,10 @@
     </row>
     <row r="181" spans="1:7" ht="18.75" customHeight="1">
       <c r="B181" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E181" s="1">
         <v>1</v>
@@ -4413,10 +4413,10 @@
     </row>
     <row r="182" spans="1:7" ht="18.75" customHeight="1">
       <c r="B182" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E182" s="1">
         <v>1</v>
@@ -4430,10 +4430,10 @@
     </row>
     <row r="183" spans="1:7" ht="18.75" customHeight="1">
       <c r="B183" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E183" s="1">
         <v>1</v>
@@ -4447,10 +4447,10 @@
     </row>
     <row r="184" spans="1:7" ht="18.75" customHeight="1">
       <c r="B184" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E184" s="1">
         <v>1</v>
@@ -4464,10 +4464,10 @@
     </row>
     <row r="185" spans="1:7" ht="18.75" customHeight="1">
       <c r="B185" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E185" s="1">
         <v>1</v>
@@ -4481,10 +4481,10 @@
     </row>
     <row r="186" spans="1:7" ht="18.75" customHeight="1">
       <c r="B186" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E186" s="1">
         <v>1</v>
